--- a/SchedulingData/static7/pso/scheduling1_4.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_4.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>83.45999999999999</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.304</v>
+        <v>25.476</v>
       </c>
     </row>
     <row r="3">
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.09999999999999</v>
+        <v>49.64</v>
       </c>
       <c r="E3" t="n">
-        <v>25.06</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>49.64</v>
       </c>
       <c r="D4" t="n">
-        <v>52.16</v>
+        <v>115.44</v>
       </c>
       <c r="E4" t="n">
-        <v>26.464</v>
+        <v>19.796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>115.44</v>
       </c>
       <c r="D5" t="n">
-        <v>54.7</v>
+        <v>175.44</v>
       </c>
       <c r="E5" t="n">
-        <v>26.72</v>
+        <v>14.936</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>47.1</v>
+        <v>54.7</v>
       </c>
       <c r="E6" t="n">
-        <v>26.48</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>78.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>25.84</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47.1</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>102.3</v>
+        <v>161.94</v>
       </c>
       <c r="E8" t="n">
-        <v>22.58</v>
+        <v>20.536</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>78.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>159.54</v>
+        <v>129.76</v>
       </c>
       <c r="E9" t="n">
-        <v>21.316</v>
+        <v>24.784</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>159.54</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>238.74</v>
+        <v>38.3</v>
       </c>
       <c r="E10" t="n">
-        <v>15.996</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54.7</v>
+        <v>38.3</v>
       </c>
       <c r="D11" t="n">
-        <v>112.24</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>23.596</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="12">
@@ -656,22 +656,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>112.24</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>201.8</v>
+        <v>44.8</v>
       </c>
       <c r="E12" t="n">
-        <v>21.22</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -679,32 +679,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.16</v>
+        <v>161.94</v>
       </c>
       <c r="D13" t="n">
-        <v>114.68</v>
+        <v>239.56</v>
       </c>
       <c r="E13" t="n">
-        <v>22.812</v>
+        <v>16.884</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>201.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>305.24</v>
+        <v>156.2</v>
       </c>
       <c r="E14" t="n">
-        <v>16.956</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="15">
@@ -713,79 +713,79 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>305.24</v>
+        <v>44.8</v>
       </c>
       <c r="D15" t="n">
-        <v>369.74</v>
+        <v>125.7</v>
       </c>
       <c r="E15" t="n">
-        <v>13.596</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>83.45999999999999</v>
+        <v>129.76</v>
       </c>
       <c r="D16" t="n">
-        <v>153.14</v>
+        <v>176.42</v>
       </c>
       <c r="E16" t="n">
-        <v>21.936</v>
+        <v>21.248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>71.09999999999999</v>
+        <v>54.7</v>
       </c>
       <c r="D17" t="n">
-        <v>126.72</v>
+        <v>119.04</v>
       </c>
       <c r="E17" t="n">
-        <v>21.628</v>
+        <v>23.376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>369.74</v>
+        <v>156.2</v>
       </c>
       <c r="D18" t="n">
-        <v>409.6</v>
+        <v>206.76</v>
       </c>
       <c r="E18" t="n">
-        <v>10.74</v>
+        <v>15.904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>114.68</v>
+        <v>125.7</v>
       </c>
       <c r="D19" t="n">
-        <v>209.88</v>
+        <v>206</v>
       </c>
       <c r="E19" t="n">
-        <v>17.872</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>102.3</v>
+        <v>119.04</v>
       </c>
       <c r="D20" t="n">
-        <v>146.24</v>
+        <v>169.54</v>
       </c>
       <c r="E20" t="n">
-        <v>19.316</v>
+        <v>20.456</v>
       </c>
     </row>
     <row r="21">
@@ -827,93 +827,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>146.24</v>
+        <v>169.54</v>
       </c>
       <c r="D21" t="n">
-        <v>196.76</v>
+        <v>229.14</v>
       </c>
       <c r="E21" t="n">
-        <v>16.404</v>
+        <v>17.096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>126.72</v>
+        <v>206.76</v>
       </c>
       <c r="D22" t="n">
-        <v>197.08</v>
+        <v>284.66</v>
       </c>
       <c r="E22" t="n">
-        <v>17.212</v>
+        <v>11.744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>153.14</v>
+        <v>176.42</v>
       </c>
       <c r="D23" t="n">
-        <v>243.84</v>
+        <v>258.8</v>
       </c>
       <c r="E23" t="n">
-        <v>15.996</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>209.88</v>
+        <v>206</v>
       </c>
       <c r="D24" t="n">
-        <v>263.88</v>
+        <v>272.56</v>
       </c>
       <c r="E24" t="n">
-        <v>14.092</v>
+        <v>13.744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>197.08</v>
+        <v>229.14</v>
       </c>
       <c r="D25" t="n">
-        <v>262.4</v>
+        <v>291.04</v>
       </c>
       <c r="E25" t="n">
-        <v>14.3</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>238.74</v>
+        <v>258.8</v>
       </c>
       <c r="D26" t="n">
-        <v>297.38</v>
+        <v>315.04</v>
       </c>
       <c r="E26" t="n">
-        <v>12.252</v>
+        <v>13.076</v>
       </c>
     </row>
     <row r="27">
@@ -941,55 +941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>297.38</v>
+        <v>315.04</v>
       </c>
       <c r="D27" t="n">
-        <v>363.2</v>
+        <v>364.62</v>
       </c>
       <c r="E27" t="n">
-        <v>7.78</v>
+        <v>9.247999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>243.84</v>
+        <v>364.62</v>
       </c>
       <c r="D28" t="n">
-        <v>281.54</v>
+        <v>421.44</v>
       </c>
       <c r="E28" t="n">
-        <v>13.356</v>
+        <v>6.176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>263.88</v>
+        <v>272.56</v>
       </c>
       <c r="D29" t="n">
-        <v>320.28</v>
+        <v>350</v>
       </c>
       <c r="E29" t="n">
-        <v>10.572</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>196.76</v>
+        <v>291.04</v>
       </c>
       <c r="D30" t="n">
-        <v>259.64</v>
+        <v>370.34</v>
       </c>
       <c r="E30" t="n">
-        <v>11.256</v>
+        <v>7.696</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>409.6</v>
+        <v>350</v>
       </c>
       <c r="D31" t="n">
-        <v>472.52</v>
+        <v>409</v>
       </c>
       <c r="E31" t="n">
-        <v>7.548</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>281.54</v>
+        <v>421.44</v>
       </c>
       <c r="D32" t="n">
-        <v>356.74</v>
+        <v>471.74</v>
       </c>
       <c r="E32" t="n">
-        <v>9.436</v>
+        <v>2.276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>320.28</v>
+        <v>370.34</v>
       </c>
       <c r="D33" t="n">
-        <v>373.86</v>
+        <v>428.98</v>
       </c>
       <c r="E33" t="n">
-        <v>7.844</v>
+        <v>3.952</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>363.2</v>
+        <v>471.74</v>
       </c>
       <c r="D34" t="n">
-        <v>433.1</v>
+        <v>548.89</v>
       </c>
       <c r="E34" t="n">
-        <v>4.42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>433.1</v>
+        <v>548.89</v>
       </c>
       <c r="D35" t="n">
-        <v>522</v>
+        <v>607.61</v>
       </c>
       <c r="E35" t="n">
-        <v>0.64</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>522</v>
+        <v>607.61</v>
       </c>
       <c r="D36" t="n">
-        <v>597.72</v>
+        <v>668.13</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>23.896</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>259.64</v>
+        <v>239.56</v>
       </c>
       <c r="D37" t="n">
-        <v>324.1</v>
+        <v>281.72</v>
       </c>
       <c r="E37" t="n">
-        <v>6.94</v>
+        <v>14.288</v>
       </c>
     </row>
     <row r="38">
@@ -1150,90 +1150,90 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>324.1</v>
+        <v>428.98</v>
       </c>
       <c r="D38" t="n">
-        <v>371.9</v>
+        <v>472.46</v>
       </c>
       <c r="E38" t="n">
-        <v>2.8</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>597.72</v>
+        <v>472.46</v>
       </c>
       <c r="D39" t="n">
-        <v>664.36</v>
+        <v>551.71</v>
       </c>
       <c r="E39" t="n">
-        <v>26.976</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>472.52</v>
+        <v>175.44</v>
       </c>
       <c r="D40" t="n">
-        <v>518.62</v>
+        <v>244.7</v>
       </c>
       <c r="E40" t="n">
-        <v>4.068</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>373.86</v>
+        <v>409</v>
       </c>
       <c r="D41" t="n">
-        <v>443.56</v>
+        <v>460.1</v>
       </c>
       <c r="E41" t="n">
-        <v>2.984</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>443.56</v>
+        <v>460.1</v>
       </c>
       <c r="D42" t="n">
-        <v>504.59</v>
+        <v>535.28</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
@@ -1241,116 +1241,116 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>504.59</v>
+        <v>535.28</v>
       </c>
       <c r="D43" t="n">
-        <v>573.01</v>
+        <v>601.64</v>
       </c>
       <c r="E43" t="n">
-        <v>26.308</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>262.4</v>
+        <v>284.66</v>
       </c>
       <c r="D44" t="n">
-        <v>323.36</v>
+        <v>330.6</v>
       </c>
       <c r="E44" t="n">
-        <v>10.324</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>371.9</v>
+        <v>330.6</v>
       </c>
       <c r="D45" t="n">
-        <v>448</v>
+        <v>377.52</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>5.708</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>448</v>
+        <v>281.72</v>
       </c>
       <c r="D46" t="n">
-        <v>519.5</v>
+        <v>332.84</v>
       </c>
       <c r="E46" t="n">
-        <v>26</v>
+        <v>9.816000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>323.36</v>
+        <v>551.71</v>
       </c>
       <c r="D47" t="n">
-        <v>390.36</v>
+        <v>611.15</v>
       </c>
       <c r="E47" t="n">
-        <v>6.244</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>519.5</v>
+        <v>332.84</v>
       </c>
       <c r="D48" t="n">
-        <v>576.9</v>
+        <v>381.1</v>
       </c>
       <c r="E48" t="n">
-        <v>23.36</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="49">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>664.36</v>
+        <v>668.13</v>
       </c>
       <c r="D49" t="n">
-        <v>717.76</v>
+        <v>731.53</v>
       </c>
       <c r="E49" t="n">
-        <v>23.256</v>
+        <v>20.176</v>
       </c>
     </row>
     <row r="50">
@@ -1378,17 +1378,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>390.36</v>
+        <v>244.7</v>
       </c>
       <c r="D50" t="n">
-        <v>452.28</v>
+        <v>314.5</v>
       </c>
       <c r="E50" t="n">
-        <v>3.172</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="51">
@@ -1397,17 +1397,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>452.28</v>
+        <v>314.5</v>
       </c>
       <c r="D51" t="n">
-        <v>504.18</v>
+        <v>409.18</v>
       </c>
       <c r="E51" t="n">
-        <v>0.092</v>
+        <v>2.892</v>
       </c>
     </row>
     <row r="52">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>504.18</v>
+        <v>409.18</v>
       </c>
       <c r="D52" t="n">
-        <v>605.3</v>
+        <v>485.3</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1435,17 +1435,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>605.3</v>
+        <v>485.3</v>
       </c>
       <c r="D53" t="n">
-        <v>680.2</v>
+        <v>557.4</v>
       </c>
       <c r="E53" t="n">
-        <v>27.64</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="54">
@@ -1454,131 +1454,131 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>518.62</v>
+        <v>601.64</v>
       </c>
       <c r="D54" t="n">
-        <v>599.78</v>
+        <v>649.86</v>
       </c>
       <c r="E54" t="n">
-        <v>0.532</v>
+        <v>22.332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>599.78</v>
+        <v>381.1</v>
       </c>
       <c r="D55" t="n">
-        <v>700.02</v>
+        <v>447.64</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
+        <v>3.096</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>576.9</v>
+        <v>649.86</v>
       </c>
       <c r="D56" t="n">
-        <v>666.9</v>
+        <v>715.46</v>
       </c>
       <c r="E56" t="n">
-        <v>20.44</v>
+        <v>18.412</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>573.01</v>
+        <v>557.4</v>
       </c>
       <c r="D57" t="n">
-        <v>634.55</v>
+        <v>617.42</v>
       </c>
       <c r="E57" t="n">
-        <v>23.284</v>
+        <v>24.008</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>666.9</v>
+        <v>377.52</v>
       </c>
       <c r="D58" t="n">
-        <v>743.96</v>
+        <v>422.48</v>
       </c>
       <c r="E58" t="n">
-        <v>17.844</v>
+        <v>3.332</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>717.76</v>
+        <v>422.48</v>
       </c>
       <c r="D59" t="n">
-        <v>768.6</v>
+        <v>522.22</v>
       </c>
       <c r="E59" t="n">
-        <v>20.292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>700.02</v>
+        <v>522.22</v>
       </c>
       <c r="D60" t="n">
-        <v>762.34</v>
+        <v>573.34</v>
       </c>
       <c r="E60" t="n">
-        <v>26.928</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="61">
@@ -1587,36 +1587,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>680.2</v>
+        <v>617.42</v>
       </c>
       <c r="D61" t="n">
-        <v>734.88</v>
+        <v>670.12</v>
       </c>
       <c r="E61" t="n">
-        <v>23.812</v>
+        <v>19.868</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>734.88</v>
+        <v>573.34</v>
       </c>
       <c r="D62" t="n">
-        <v>779.62</v>
+        <v>611.04</v>
       </c>
       <c r="E62" t="n">
-        <v>20.468</v>
+        <v>23.928</v>
       </c>
     </row>
   </sheetData>
